--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-304-R02A 1#制袋机开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-304-R02A 1#制袋机开机前确认表.xlsx
@@ -915,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,36 +982,63 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,24 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1373,14 +1382,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -1389,11 +1398,11 @@
       <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1401,121 +1410,129 @@
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1540,11 +1557,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-304-R02A 1#制袋机开机前确认表.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-304-R02A 1#制袋机开机前确认表.xlsx
@@ -991,6 +991,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1015,15 +1030,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,12 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1382,14 +1382,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -1398,11 +1398,11 @@
       <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1410,57 +1410,57 @@
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1474,40 +1474,40 @@
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
@@ -1519,6 +1519,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A2:F2"/>
@@ -1526,13 +1533,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
